--- a/DataSheets/WIN_single_cell.xlsx
+++ b/DataSheets/WIN_single_cell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miramota/OHSU Dropbox/Tania Miramontes/Data_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miramota/Desktop/Graphs/DataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EFEDA3-42FA-7046-B9E6-23462FE71DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D9B4F5-0371-5B4C-AF15-8F62088C99D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{C59FDBCF-5492-6B4B-BDD1-72086FCF7FC7}"/>
+    <workbookView xWindow="-40" yWindow="-20560" windowWidth="28800" windowHeight="15840" xr2:uid="{C59FDBCF-5492-6B4B-BDD1-72086FCF7FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="OL_df" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="128">
   <si>
     <t>fish_ID</t>
   </si>
@@ -393,6 +393,33 @@
   </si>
   <si>
     <t>aberrant</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>choc</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>peanut</t>
+  </si>
+  <si>
+    <t>oatmeal</t>
+  </si>
+  <si>
+    <t>oat</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>oxidize</t>
+  </si>
+  <si>
+    <t>F-other</t>
   </si>
 </sst>
 </file>
@@ -430,7 +457,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +608,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2D7DCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -594,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -627,6 +678,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,6 +690,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2D7DCE"/>
       <color rgb="FF94DCF8"/>
     </mruColors>
   </colors>
@@ -966,10 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553EF5CA-D8C3-EE4E-9852-E30D2490C991}">
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="Q81" sqref="Q81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1539,7 @@
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
@@ -1556,7 +1613,7 @@
         <v>7.2927311271594917</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1828,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="C31" s="7">
         <v>2</v>
@@ -2326,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="C49" s="7">
         <v>2</v>
@@ -2942,17 +2999,17 @@
       <c r="C71" s="9">
         <v>3</v>
       </c>
-      <c r="D71" s="9">
-        <v>16</v>
-      </c>
-      <c r="E71" s="10">
-        <v>290.49010474109571</v>
-      </c>
-      <c r="F71" s="10">
-        <v>18.155631546318482</v>
+      <c r="D71" s="35">
+        <v>11</v>
+      </c>
+      <c r="E71" s="35">
+        <v>272.60476746662385</v>
+      </c>
+      <c r="F71" s="35">
+        <v>24.782251587874896</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -3776,7 +3833,7 @@
       <c r="A101" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C101" s="14">
@@ -4028,7 +4085,7 @@
       <c r="A110" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C110" s="24">
@@ -6005,10 +6062,10 @@
         <v>93</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C180" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D180" s="4">
         <v>26</v>
@@ -6481,6 +6538,254 @@
       </c>
       <c r="I197" s="13" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C198" s="25">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
+      <c r="I198" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" s="21">
+        <v>2</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C200" s="18">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200" s="1">
+        <v>1</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201" s="1">
+        <v>1</v>
+      </c>
+      <c r="I201" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C202" s="16">
+        <v>2</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C203" s="21">
+        <v>3</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C204" s="17">
+        <v>3</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B206" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C206" s="34">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B209" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C209" s="30">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210" s="30">
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="1">
+        <v>3</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C213" s="4">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
